--- a/Code/Results/Cases/Case_4_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.77025175053456</v>
+        <v>16.75986665991057</v>
       </c>
       <c r="C2">
-        <v>7.210325440853432</v>
+        <v>6.796856553480716</v>
       </c>
       <c r="D2">
-        <v>6.98373805510632</v>
+        <v>6.039812658324104</v>
       </c>
       <c r="E2">
-        <v>6.89218683325286</v>
+        <v>11.36589656093263</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.70222103165927</v>
+        <v>54.26803686999935</v>
       </c>
       <c r="H2">
-        <v>14.22785977508086</v>
+        <v>20.54694662158878</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.16770300555106</v>
+        <v>13.11867552786184</v>
       </c>
       <c r="L2">
-        <v>6.209094266643471</v>
+        <v>10.06044851133212</v>
       </c>
       <c r="M2">
-        <v>11.00102574255392</v>
+        <v>16.15290065296539</v>
       </c>
       <c r="N2">
-        <v>15.95261409815619</v>
+        <v>23.49160455172819</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.889026795155</v>
+        <v>16.59878741259503</v>
       </c>
       <c r="C3">
-        <v>6.925863338750041</v>
+        <v>6.692520845230397</v>
       </c>
       <c r="D3">
-        <v>6.494751541621943</v>
+        <v>5.930605188641134</v>
       </c>
       <c r="E3">
-        <v>6.897319296872209</v>
+        <v>11.38427296345069</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.49776433446361</v>
+        <v>54.12244448164898</v>
       </c>
       <c r="H3">
-        <v>14.1057694441579</v>
+        <v>20.56566637289979</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.37993459256045</v>
+        <v>13.00208010938124</v>
       </c>
       <c r="L3">
-        <v>6.136091508994908</v>
+        <v>10.07064618614958</v>
       </c>
       <c r="M3">
-        <v>10.68202924924542</v>
+        <v>16.14057881007925</v>
       </c>
       <c r="N3">
-        <v>16.10370124244071</v>
+        <v>23.53911512472145</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.33115837226128</v>
+        <v>16.5035426900284</v>
       </c>
       <c r="C4">
-        <v>6.745557835876936</v>
+        <v>6.62647670951273</v>
       </c>
       <c r="D4">
-        <v>6.212213678882724</v>
+        <v>5.864366657442162</v>
       </c>
       <c r="E4">
-        <v>6.902833427589929</v>
+        <v>11.39664077983394</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.77898741470011</v>
+        <v>54.04496650767897</v>
       </c>
       <c r="H4">
-        <v>14.03894623534328</v>
+        <v>20.58034264248835</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.9531792654889</v>
+        <v>12.93338772004742</v>
       </c>
       <c r="L4">
-        <v>6.093917327698855</v>
+        <v>10.07829238183617</v>
       </c>
       <c r="M4">
-        <v>10.4879911542659</v>
+        <v>16.13595105707765</v>
       </c>
       <c r="N4">
-        <v>16.20097773560281</v>
+        <v>23.57018126463647</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.09983729004902</v>
+        <v>16.46569172169145</v>
       </c>
       <c r="C5">
-        <v>6.670692000232031</v>
+        <v>6.599077209915897</v>
       </c>
       <c r="D5">
-        <v>6.100721733835033</v>
+        <v>5.837618580578981</v>
       </c>
       <c r="E5">
-        <v>6.905662529502747</v>
+        <v>11.40195387381332</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.49147311088563</v>
+        <v>54.01640635441598</v>
       </c>
       <c r="H5">
-        <v>14.01370771072166</v>
+        <v>20.5871230551092</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.77621631041628</v>
+        <v>12.90615285757174</v>
       </c>
       <c r="L5">
-        <v>6.077396231824818</v>
+        <v>10.08175676762917</v>
       </c>
       <c r="M5">
-        <v>10.40947211850831</v>
+        <v>16.13480638409189</v>
       </c>
       <c r="N5">
-        <v>16.24173096056683</v>
+        <v>23.58331770221642</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.06119388808524</v>
+        <v>16.45946589134147</v>
       </c>
       <c r="C6">
-        <v>6.658177652509295</v>
+        <v>6.594498561040239</v>
       </c>
       <c r="D6">
-        <v>6.0820733926029</v>
+        <v>5.833193016972498</v>
       </c>
       <c r="E6">
-        <v>6.906167106408612</v>
+        <v>11.40285261483527</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.44406226934311</v>
+        <v>54.01184633988723</v>
       </c>
       <c r="H6">
-        <v>14.00963558643041</v>
+        <v>20.58829722032272</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.74665318354111</v>
+        <v>12.90167712494734</v>
       </c>
       <c r="L6">
-        <v>6.074693043615379</v>
+        <v>10.08235308194018</v>
       </c>
       <c r="M6">
-        <v>10.39647031597982</v>
+        <v>16.13466113954007</v>
       </c>
       <c r="N6">
-        <v>16.24856460312514</v>
+        <v>23.58552780190677</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.32805447841102</v>
+        <v>16.50302826934411</v>
       </c>
       <c r="C7">
-        <v>6.744553752008657</v>
+        <v>6.626109141357361</v>
       </c>
       <c r="D7">
-        <v>6.210719189677197</v>
+        <v>5.864004880539332</v>
       </c>
       <c r="E7">
-        <v>6.902869240891688</v>
+        <v>11.39671132778077</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.7750878345217</v>
+        <v>54.04456911788983</v>
       </c>
       <c r="H7">
-        <v>14.03859786557434</v>
+        <v>20.58043084832555</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.95080479022749</v>
+        <v>12.93301731524442</v>
       </c>
       <c r="L7">
-        <v>6.093691827078632</v>
+        <v>10.07833769236193</v>
       </c>
       <c r="M7">
-        <v>10.48692985278599</v>
+        <v>16.13593261576304</v>
       </c>
       <c r="N7">
-        <v>16.20152287072429</v>
+        <v>23.57035649651011</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.47001720970895</v>
+        <v>16.70359300771579</v>
       </c>
       <c r="C8">
-        <v>7.113429723779882</v>
+        <v>6.761300106481924</v>
       </c>
       <c r="D8">
-        <v>6.818471222860641</v>
+        <v>6.002012488235305</v>
       </c>
       <c r="E8">
-        <v>6.893458733670633</v>
+        <v>11.37200785230183</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.28271751203549</v>
+        <v>54.21537407248268</v>
       </c>
       <c r="H8">
-        <v>14.18404100934819</v>
+        <v>20.55274046267525</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.8823862657276</v>
+        <v>13.07788998487029</v>
       </c>
       <c r="L8">
-        <v>6.183372538238061</v>
+        <v>10.06367744350571</v>
       </c>
       <c r="M8">
-        <v>10.89071117570645</v>
+        <v>16.14804388406285</v>
       </c>
       <c r="N8">
-        <v>16.00375954936754</v>
+        <v>23.50759321683459</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.56828850348169</v>
+        <v>17.12399333958425</v>
       </c>
       <c r="C9">
-        <v>7.791127713057441</v>
+        <v>7.010173732055011</v>
       </c>
       <c r="D9">
-        <v>7.950776817164189</v>
+        <v>6.277380088621245</v>
       </c>
       <c r="E9">
-        <v>6.894314530688179</v>
+        <v>11.33215422387745</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48.39673548160052</v>
+        <v>54.64402268618487</v>
       </c>
       <c r="H9">
-        <v>14.53623967151788</v>
+        <v>20.52370689326677</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.83566327765124</v>
+        <v>13.38362544246086</v>
       </c>
       <c r="L9">
-        <v>6.38028475814536</v>
+        <v>10.04590258697166</v>
       </c>
       <c r="M9">
-        <v>11.69321839376874</v>
+        <v>16.19498327152645</v>
       </c>
       <c r="N9">
-        <v>15.65282227068465</v>
+        <v>23.39953003639105</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.01651669240391</v>
+        <v>17.44668414877539</v>
       </c>
       <c r="C10">
-        <v>8.260607181338695</v>
+        <v>7.182478707943786</v>
       </c>
       <c r="D10">
-        <v>8.708445676278284</v>
+        <v>6.480297210681603</v>
       </c>
       <c r="E10">
-        <v>6.907523080089907</v>
+        <v>11.30808844030197</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>50.77233710810468</v>
+        <v>55.01474253059116</v>
       </c>
       <c r="H10">
-        <v>14.8390940677312</v>
+        <v>20.51779615268609</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.14066418320373</v>
+        <v>13.61955118273304</v>
       </c>
       <c r="L10">
-        <v>6.537815398570276</v>
+        <v>10.0395128742585</v>
       </c>
       <c r="M10">
-        <v>12.28483053364265</v>
+        <v>16.24342014192866</v>
       </c>
       <c r="N10">
-        <v>15.41924737940737</v>
+        <v>23.32926719530054</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.65431841600645</v>
+        <v>17.59589278638379</v>
       </c>
       <c r="C11">
-        <v>8.468050482576285</v>
+        <v>7.258449930946891</v>
       </c>
       <c r="D11">
-        <v>9.037684965508335</v>
+        <v>6.572277137863535</v>
       </c>
       <c r="E11">
-        <v>6.916449178801264</v>
+        <v>11.29826788384732</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.87088665544053</v>
+        <v>55.19516138535482</v>
       </c>
       <c r="H11">
-        <v>14.98715009637343</v>
+        <v>20.51845539340756</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.70724244429421</v>
+        <v>13.72891430289673</v>
       </c>
       <c r="L11">
-        <v>6.61228128200531</v>
+        <v>10.03804869490096</v>
       </c>
       <c r="M11">
-        <v>12.55364696227721</v>
+        <v>16.26843627619346</v>
       </c>
       <c r="N11">
-        <v>15.31873357059836</v>
+        <v>23.29928104533442</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.91258260209862</v>
+        <v>17.65269109312089</v>
       </c>
       <c r="C12">
-        <v>8.545735722765594</v>
+        <v>7.28686164198607</v>
       </c>
       <c r="D12">
-        <v>9.160200007796455</v>
+        <v>6.607023635579486</v>
       </c>
       <c r="E12">
-        <v>6.92026496456236</v>
+        <v>11.29471077656167</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.28939277955645</v>
+        <v>55.26514082828261</v>
       </c>
       <c r="H12">
-        <v>15.04475342260491</v>
+        <v>20.51918604444164</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.91799820830132</v>
+        <v>13.77058460844127</v>
       </c>
       <c r="L12">
-        <v>6.640884009469062</v>
+        <v>10.03770108306076</v>
       </c>
       <c r="M12">
-        <v>12.65534704693077</v>
+        <v>16.27833321931923</v>
       </c>
       <c r="N12">
-        <v>15.28154483121601</v>
+        <v>23.28821005572662</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.85580735582044</v>
+        <v>17.64044619880008</v>
       </c>
       <c r="C13">
-        <v>8.529043196731608</v>
+        <v>7.280758703335305</v>
       </c>
       <c r="D13">
-        <v>9.133909338152502</v>
+        <v>6.599544677935659</v>
       </c>
       <c r="E13">
-        <v>6.919423524140367</v>
+        <v>11.29546967616882</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>52.19914888745188</v>
+        <v>55.24999631194994</v>
       </c>
       <c r="H13">
-        <v>15.03227816140882</v>
+        <v>20.51900730178551</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.87277534030427</v>
+        <v>13.76159931938258</v>
       </c>
       <c r="L13">
-        <v>6.634705901112178</v>
+        <v>10.03776675835482</v>
       </c>
       <c r="M13">
-        <v>12.63344900310629</v>
+        <v>16.27618296638699</v>
       </c>
       <c r="N13">
-        <v>15.28951439486775</v>
+        <v>23.29058175742463</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.6739991721888</v>
+        <v>17.60055997257844</v>
       </c>
       <c r="C14">
-        <v>8.474459015795162</v>
+        <v>7.260794589645325</v>
       </c>
       <c r="D14">
-        <v>9.047807311077074</v>
+        <v>6.575137649292663</v>
       </c>
       <c r="E14">
-        <v>6.916754278855191</v>
+        <v>11.29797199932002</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>51.90526730664156</v>
+        <v>55.20088560117782</v>
       </c>
       <c r="H14">
-        <v>14.99185799278159</v>
+        <v>20.51850586759348</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.72465692263637</v>
+        <v>13.73233760503219</v>
       </c>
       <c r="L14">
-        <v>6.614626337553342</v>
+        <v>10.03801595490394</v>
       </c>
       <c r="M14">
-        <v>12.56201603507593</v>
+        <v>16.26924203824645</v>
       </c>
       <c r="N14">
-        <v>15.31565622087641</v>
+        <v>23.29836453503316</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.57095982530543</v>
+        <v>17.57616557102113</v>
       </c>
       <c r="C15">
-        <v>8.440911936267234</v>
+        <v>7.248519215719678</v>
       </c>
       <c r="D15">
-        <v>8.994787723898826</v>
+        <v>6.560175587854043</v>
       </c>
       <c r="E15">
-        <v>6.915176519350584</v>
+        <v>11.29952579529203</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>51.72558208186</v>
+        <v>55.17101881259765</v>
       </c>
       <c r="H15">
-        <v>14.96730151560798</v>
+        <v>20.51826134989102</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.63343889945111</v>
+        <v>13.71444632874568</v>
       </c>
       <c r="L15">
-        <v>6.602379697361761</v>
+        <v>10.03819551302366</v>
       </c>
       <c r="M15">
-        <v>12.51824764219486</v>
+        <v>16.26504556721856</v>
       </c>
       <c r="N15">
-        <v>15.33178416654153</v>
+        <v>23.30316870721192</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.97440951123271</v>
+        <v>17.43697724716978</v>
       </c>
       <c r="C16">
-        <v>8.24692784756007</v>
+        <v>7.177464404199895</v>
       </c>
       <c r="D16">
-        <v>8.686623517120672</v>
+        <v>6.474276292120774</v>
       </c>
       <c r="E16">
-        <v>6.906999805552305</v>
+        <v>11.30875288692921</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>50.70089777723338</v>
+        <v>55.00318580363355</v>
       </c>
       <c r="H16">
-        <v>14.82963018971823</v>
+        <v>20.51782040888875</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.10310040348157</v>
+        <v>13.61244197616874</v>
       </c>
       <c r="L16">
-        <v>6.533005356914906</v>
+        <v>10.03963754011379</v>
       </c>
       <c r="M16">
-        <v>12.26725193245086</v>
+        <v>16.24184487179395</v>
       </c>
       <c r="N16">
-        <v>15.42593567355044</v>
+        <v>23.33126662580147</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.60303928476397</v>
+        <v>17.35217196566087</v>
       </c>
       <c r="C17">
-        <v>8.126361996571051</v>
+        <v>7.133249565884342</v>
       </c>
       <c r="D17">
-        <v>8.493663207272602</v>
+        <v>6.421468882429076</v>
       </c>
       <c r="E17">
-        <v>6.902742107248032</v>
+        <v>11.31470183655848</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.07680832030802</v>
+        <v>54.90321812398924</v>
       </c>
       <c r="H17">
-        <v>14.74784870966799</v>
+        <v>20.51840718228749</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.77088847082262</v>
+        <v>13.55036211218653</v>
       </c>
       <c r="L17">
-        <v>6.49116499188903</v>
+        <v>10.04089124384428</v>
       </c>
       <c r="M17">
-        <v>12.11315513141295</v>
+        <v>16.22837237582113</v>
       </c>
       <c r="N17">
-        <v>15.4851970647409</v>
+        <v>23.34900998002088</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.38745929316078</v>
+        <v>17.30362458730052</v>
       </c>
       <c r="C18">
-        <v>8.056437982573673</v>
+        <v>7.107591983771496</v>
       </c>
       <c r="D18">
-        <v>8.381221702896113</v>
+        <v>6.391066696126457</v>
       </c>
       <c r="E18">
-        <v>6.900566783893557</v>
+        <v>11.31822962334282</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>49.71953234472556</v>
+        <v>54.84683007911719</v>
       </c>
       <c r="H18">
-        <v>14.70177471576734</v>
+        <v>20.51905985401502</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.57725446033268</v>
+        <v>13.51484956467893</v>
       </c>
       <c r="L18">
-        <v>6.46736338305597</v>
+        <v>10.04174815891677</v>
       </c>
       <c r="M18">
-        <v>12.02449574016028</v>
+        <v>16.22090435006442</v>
       </c>
       <c r="N18">
-        <v>15.5198197157106</v>
+        <v>23.3594015582035</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.31412914974518</v>
+        <v>17.28722840050262</v>
       </c>
       <c r="C19">
-        <v>8.032663455490082</v>
+        <v>7.098866207700355</v>
       </c>
       <c r="D19">
-        <v>8.3428992000081</v>
+        <v>6.380769257093681</v>
       </c>
       <c r="E19">
-        <v>6.899876768459985</v>
+        <v>11.31944230608288</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.59885661348113</v>
+        <v>54.82792983586889</v>
       </c>
       <c r="H19">
-        <v>14.68633877100121</v>
+        <v>20.5193349789911</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.51125169645202</v>
+        <v>13.50286007657415</v>
       </c>
       <c r="L19">
-        <v>6.4593498775633</v>
+        <v>10.04206163944435</v>
       </c>
       <c r="M19">
-        <v>11.99447428094734</v>
+        <v>16.21842420973276</v>
       </c>
       <c r="N19">
-        <v>15.5316332325117</v>
+        <v>23.36295193041253</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.64277722301842</v>
+        <v>17.36117615911197</v>
       </c>
       <c r="C20">
-        <v>8.139256168869972</v>
+        <v>7.137979815894485</v>
       </c>
       <c r="D20">
-        <v>8.514354428667739</v>
+        <v>6.427093572305</v>
       </c>
       <c r="E20">
-        <v>6.903166916571664</v>
+        <v>11.31405758142096</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.14307003021678</v>
+        <v>54.9137451413817</v>
       </c>
       <c r="H20">
-        <v>14.75645424443345</v>
+        <v>20.51831210225512</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.8065166898835</v>
+        <v>13.55695078901004</v>
       </c>
       <c r="L20">
-        <v>6.495591658831793</v>
+        <v>10.04074373238548</v>
       </c>
       <c r="M20">
-        <v>12.12956219326017</v>
+        <v>16.22977749816987</v>
       </c>
       <c r="N20">
-        <v>15.47883267659185</v>
+        <v>23.34710191315974</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.72462386026868</v>
+        <v>17.61226789104132</v>
       </c>
       <c r="C21">
-        <v>8.490515165958433</v>
+        <v>7.26666829965866</v>
       </c>
       <c r="D21">
-        <v>9.073155725162993</v>
+        <v>6.582309160623572</v>
       </c>
       <c r="E21">
-        <v>6.917526344109663</v>
+        <v>11.29723262002185</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>51.99151961368751</v>
+        <v>55.21526587986004</v>
       </c>
       <c r="H21">
-        <v>15.00368816179888</v>
+        <v>20.51864010100569</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.76826507667008</v>
+        <v>13.74092579936936</v>
       </c>
       <c r="L21">
-        <v>6.620513212023753</v>
+        <v>10.03793715129767</v>
       </c>
       <c r="M21">
-        <v>12.58300054385113</v>
+        <v>16.27126929453498</v>
       </c>
       <c r="N21">
-        <v>15.30795360410348</v>
+        <v>23.29607083485062</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.48635879885152</v>
+        <v>17.77807393259218</v>
       </c>
       <c r="C22">
-        <v>8.715028827257596</v>
+        <v>7.348688797477474</v>
       </c>
       <c r="D22">
-        <v>9.425799997167674</v>
+        <v>6.683244148597494</v>
       </c>
       <c r="E22">
-        <v>6.929458591965651</v>
+        <v>11.28717902124448</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53.2142194280331</v>
+        <v>55.42197751737606</v>
       </c>
       <c r="H22">
-        <v>15.17426230553372</v>
+        <v>20.52165781364649</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.3747528239749</v>
+        <v>13.86264436831708</v>
       </c>
       <c r="L22">
-        <v>6.704513480916011</v>
+        <v>10.03730819277992</v>
       </c>
       <c r="M22">
-        <v>12.8787812098977</v>
+        <v>16.3008546798081</v>
       </c>
       <c r="N22">
-        <v>15.20139404539138</v>
+        <v>23.26437505864978</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.08216377182441</v>
+        <v>17.68944113851592</v>
       </c>
       <c r="C23">
-        <v>8.595658228104197</v>
+        <v>7.305106906083347</v>
       </c>
       <c r="D23">
-        <v>9.238716643125203</v>
+        <v>6.629431486107236</v>
       </c>
       <c r="E23">
-        <v>6.922851462278544</v>
+        <v>11.29245869581676</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>52.5603109196309</v>
+        <v>55.31078077795378</v>
       </c>
       <c r="H23">
-        <v>15.08238070688392</v>
+        <v>20.5197908966161</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.05304417105561</v>
+        <v>13.79755748467258</v>
       </c>
       <c r="L23">
-        <v>6.659464701233272</v>
+        <v>10.03753380811291</v>
       </c>
       <c r="M23">
-        <v>12.72098284376375</v>
+        <v>16.28484030597283</v>
       </c>
       <c r="N23">
-        <v>15.25778068111672</v>
+        <v>23.28114021096102</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.62481816001228</v>
+        <v>17.35710471048342</v>
       </c>
       <c r="C24">
-        <v>8.133428611576903</v>
+        <v>7.135842010098163</v>
       </c>
       <c r="D24">
-        <v>8.505004622813496</v>
+        <v>6.424550779589146</v>
       </c>
       <c r="E24">
-        <v>6.902974012759179</v>
+        <v>11.31434851381089</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.11310836716849</v>
+        <v>54.90898249527364</v>
       </c>
       <c r="H24">
-        <v>14.75256074848863</v>
+        <v>20.51835410560165</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.79041740532535</v>
+        <v>13.55397149099692</v>
       </c>
       <c r="L24">
-        <v>6.493589574792827</v>
+        <v>10.04080999819565</v>
       </c>
       <c r="M24">
-        <v>12.12214476560556</v>
+        <v>16.22914137760864</v>
       </c>
       <c r="N24">
-        <v>15.48170829915501</v>
+        <v>23.34796395612496</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.01667159292301</v>
+        <v>17.00763708154662</v>
       </c>
       <c r="C25">
-        <v>7.612770918137057</v>
+        <v>6.944653608597033</v>
       </c>
       <c r="D25">
-        <v>7.657713179992085</v>
+        <v>6.202618001264091</v>
       </c>
       <c r="E25">
-        <v>6.891934291882872</v>
+        <v>11.34201832965657</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>47.53837869532618</v>
+        <v>54.51815580474612</v>
       </c>
       <c r="H25">
-        <v>14.43345178059696</v>
+        <v>20.52885372164463</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.33046113290127</v>
+        <v>13.29879059690994</v>
       </c>
       <c r="L25">
-        <v>6.324757846118962</v>
+        <v>10.04953819364532</v>
       </c>
       <c r="M25">
-        <v>11.47547291684478</v>
+        <v>16.17981989497649</v>
       </c>
       <c r="N25">
-        <v>15.7436444911376</v>
+        <v>23.42715888840173</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.75986665991057</v>
+        <v>15.77025175053457</v>
       </c>
       <c r="C2">
-        <v>6.796856553480716</v>
+        <v>7.210325440853172</v>
       </c>
       <c r="D2">
-        <v>6.039812658324104</v>
+        <v>6.983738055106336</v>
       </c>
       <c r="E2">
-        <v>11.36589656093263</v>
+        <v>6.89218683325281</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>54.26803686999935</v>
+        <v>45.70222103165922</v>
       </c>
       <c r="H2">
-        <v>20.54694662158878</v>
+        <v>14.22785977508079</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.11867552786184</v>
+        <v>12.16770300555104</v>
       </c>
       <c r="L2">
-        <v>10.06044851133212</v>
+        <v>6.209094266643447</v>
       </c>
       <c r="M2">
-        <v>16.15290065296539</v>
+        <v>11.00102574255391</v>
       </c>
       <c r="N2">
-        <v>23.49160455172819</v>
+        <v>15.95261409815616</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.59878741259503</v>
+        <v>14.88902679515496</v>
       </c>
       <c r="C3">
-        <v>6.692520845230397</v>
+        <v>6.92586333875016</v>
       </c>
       <c r="D3">
-        <v>5.930605188641134</v>
+        <v>6.494751541621908</v>
       </c>
       <c r="E3">
-        <v>11.38427296345069</v>
+        <v>6.897319296872157</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54.12244448164898</v>
+        <v>44.49776433446328</v>
       </c>
       <c r="H3">
-        <v>20.56566637289979</v>
+        <v>14.10576944415778</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.00208010938124</v>
+        <v>11.37993459256041</v>
       </c>
       <c r="L3">
-        <v>10.07064618614958</v>
+        <v>6.136091508994789</v>
       </c>
       <c r="M3">
-        <v>16.14057881007925</v>
+        <v>10.68202924924532</v>
       </c>
       <c r="N3">
-        <v>23.53911512472145</v>
+        <v>16.10370124244057</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.5035426900284</v>
+        <v>14.33115837226129</v>
       </c>
       <c r="C4">
-        <v>6.62647670951273</v>
+        <v>6.74555783587682</v>
       </c>
       <c r="D4">
-        <v>5.864366657442162</v>
+        <v>6.212213678882725</v>
       </c>
       <c r="E4">
-        <v>11.39664077983394</v>
+        <v>6.902833427589805</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>54.04496650767897</v>
+        <v>43.77898741470028</v>
       </c>
       <c r="H4">
-        <v>20.58034264248835</v>
+        <v>14.03894623534334</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.93338772004742</v>
+        <v>10.95317926548892</v>
       </c>
       <c r="L4">
-        <v>10.07829238183617</v>
+        <v>6.09391732769883</v>
       </c>
       <c r="M4">
-        <v>16.13595105707765</v>
+        <v>10.4879911542659</v>
       </c>
       <c r="N4">
-        <v>23.57018126463647</v>
+        <v>16.2009777356029</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.46569172169145</v>
+        <v>14.09983729004904</v>
       </c>
       <c r="C5">
-        <v>6.599077209915897</v>
+        <v>6.670692000232381</v>
       </c>
       <c r="D5">
-        <v>5.837618580578981</v>
+        <v>6.100721733835018</v>
       </c>
       <c r="E5">
-        <v>11.40195387381332</v>
+        <v>6.905662529502746</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.01640635441598</v>
+        <v>43.49147311088562</v>
       </c>
       <c r="H5">
-        <v>20.5871230551092</v>
+        <v>14.01370771072166</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.90615285757174</v>
+        <v>10.77621631041626</v>
       </c>
       <c r="L5">
-        <v>10.08175676762917</v>
+        <v>6.077396231824713</v>
       </c>
       <c r="M5">
-        <v>16.13480638409189</v>
+        <v>10.40947211850829</v>
       </c>
       <c r="N5">
-        <v>23.58331770221642</v>
+        <v>16.24173096056685</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.45946589134147</v>
+        <v>14.06119388808522</v>
       </c>
       <c r="C6">
-        <v>6.594498561040239</v>
+        <v>6.658177652509072</v>
       </c>
       <c r="D6">
-        <v>5.833193016972498</v>
+        <v>6.082073392602875</v>
       </c>
       <c r="E6">
-        <v>11.40285261483527</v>
+        <v>6.906167106408616</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.01184633988723</v>
+        <v>43.44406226934275</v>
       </c>
       <c r="H6">
-        <v>20.58829722032272</v>
+        <v>14.00963558643036</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.90167712494734</v>
+        <v>10.7466531835411</v>
       </c>
       <c r="L6">
-        <v>10.08235308194018</v>
+        <v>6.074693043615389</v>
       </c>
       <c r="M6">
-        <v>16.13466113954007</v>
+        <v>10.39647031597981</v>
       </c>
       <c r="N6">
-        <v>23.58552780190677</v>
+        <v>16.24856460312498</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.50302826934411</v>
+        <v>14.32805447841106</v>
       </c>
       <c r="C7">
-        <v>6.626109141357361</v>
+        <v>6.744553752008518</v>
       </c>
       <c r="D7">
-        <v>5.864004880539332</v>
+        <v>6.21071918967714</v>
       </c>
       <c r="E7">
-        <v>11.39671132778077</v>
+        <v>6.902869240891631</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>54.04456911788983</v>
+        <v>43.77508783452181</v>
       </c>
       <c r="H7">
-        <v>20.58043084832555</v>
+        <v>14.0385978655744</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.93301731524442</v>
+        <v>10.95080479022752</v>
       </c>
       <c r="L7">
-        <v>10.07833769236193</v>
+        <v>6.093691827078575</v>
       </c>
       <c r="M7">
-        <v>16.13593261576304</v>
+        <v>10.486929852786</v>
       </c>
       <c r="N7">
-        <v>23.57035649651011</v>
+        <v>16.20152287072436</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.70359300771579</v>
+        <v>15.47001720970894</v>
       </c>
       <c r="C8">
-        <v>6.761300106481924</v>
+        <v>7.113429723779882</v>
       </c>
       <c r="D8">
-        <v>6.002012488235305</v>
+        <v>6.818471222860654</v>
       </c>
       <c r="E8">
-        <v>11.37200785230183</v>
+        <v>6.893458733670635</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>54.21537407248268</v>
+        <v>45.28271751203531</v>
       </c>
       <c r="H8">
-        <v>20.55274046267525</v>
+        <v>14.18404100934803</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.07788998487029</v>
+        <v>11.88238626572761</v>
       </c>
       <c r="L8">
-        <v>10.06367744350571</v>
+        <v>6.183372538238038</v>
       </c>
       <c r="M8">
-        <v>16.14804388406285</v>
+        <v>10.89071117570641</v>
       </c>
       <c r="N8">
-        <v>23.50759321683459</v>
+        <v>16.00375954936742</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.12399333958425</v>
+        <v>17.56828850348166</v>
       </c>
       <c r="C9">
-        <v>7.010173732055011</v>
+        <v>7.791127713057552</v>
       </c>
       <c r="D9">
-        <v>6.277380088621245</v>
+        <v>7.950776817164086</v>
       </c>
       <c r="E9">
-        <v>11.33215422387745</v>
+        <v>6.894314530688287</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.64402268618487</v>
+        <v>48.39673548160039</v>
       </c>
       <c r="H9">
-        <v>20.52370689326677</v>
+        <v>14.53623967151798</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.38362544246086</v>
+        <v>13.83566327765123</v>
       </c>
       <c r="L9">
-        <v>10.04590258697166</v>
+        <v>6.380284758145416</v>
       </c>
       <c r="M9">
-        <v>16.19498327152645</v>
+        <v>11.69321839376876</v>
       </c>
       <c r="N9">
-        <v>23.39953003639105</v>
+        <v>15.65282227068473</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.44668414877539</v>
+        <v>19.01651669240391</v>
       </c>
       <c r="C10">
-        <v>7.182478707943786</v>
+        <v>8.260607181338717</v>
       </c>
       <c r="D10">
-        <v>6.480297210681603</v>
+        <v>8.708445676278258</v>
       </c>
       <c r="E10">
-        <v>11.30808844030197</v>
+        <v>6.907523080089796</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.01474253059116</v>
+        <v>50.77233710810462</v>
       </c>
       <c r="H10">
-        <v>20.51779615268609</v>
+        <v>14.83909406773127</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.61955118273304</v>
+        <v>15.14066418320373</v>
       </c>
       <c r="L10">
-        <v>10.0395128742585</v>
+        <v>6.537815398570229</v>
       </c>
       <c r="M10">
-        <v>16.24342014192866</v>
+        <v>12.28483053364262</v>
       </c>
       <c r="N10">
-        <v>23.32926719530054</v>
+        <v>15.41924737940739</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.59589278638379</v>
+        <v>19.65431841600645</v>
       </c>
       <c r="C11">
-        <v>7.258449930946891</v>
+        <v>8.468050482576393</v>
       </c>
       <c r="D11">
-        <v>6.572277137863535</v>
+        <v>9.037684965508332</v>
       </c>
       <c r="E11">
-        <v>11.29826788384732</v>
+        <v>6.916449178801426</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>55.19516138535482</v>
+        <v>51.87088665544034</v>
       </c>
       <c r="H11">
-        <v>20.51845539340756</v>
+        <v>14.98715009637342</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.72891430289673</v>
+        <v>15.70724244429428</v>
       </c>
       <c r="L11">
-        <v>10.03804869490096</v>
+        <v>6.612281282005343</v>
       </c>
       <c r="M11">
-        <v>16.26843627619346</v>
+        <v>12.55364696227722</v>
       </c>
       <c r="N11">
-        <v>23.29928104533442</v>
+        <v>15.31873357059835</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.65269109312089</v>
+        <v>19.91258260209858</v>
       </c>
       <c r="C12">
-        <v>7.28686164198607</v>
+        <v>8.545735722765604</v>
       </c>
       <c r="D12">
-        <v>6.607023635579486</v>
+        <v>9.160200007796405</v>
       </c>
       <c r="E12">
-        <v>11.29471077656167</v>
+        <v>6.920264964562294</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>55.26514082828261</v>
+        <v>52.28939277955654</v>
       </c>
       <c r="H12">
-        <v>20.51918604444164</v>
+        <v>15.04475342260494</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.77058460844127</v>
+        <v>15.91799820830126</v>
       </c>
       <c r="L12">
-        <v>10.03770108306076</v>
+        <v>6.64088400946907</v>
       </c>
       <c r="M12">
-        <v>16.27833321931923</v>
+        <v>12.65534704693079</v>
       </c>
       <c r="N12">
-        <v>23.28821005572662</v>
+        <v>15.28154483121601</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.64044619880008</v>
+        <v>19.85580735582045</v>
       </c>
       <c r="C13">
-        <v>7.280758703335305</v>
+        <v>8.529043196731601</v>
       </c>
       <c r="D13">
-        <v>6.599544677935659</v>
+        <v>9.13390933815243</v>
       </c>
       <c r="E13">
-        <v>11.29546967616882</v>
+        <v>6.919423524140475</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>55.24999631194994</v>
+        <v>52.19914888745194</v>
       </c>
       <c r="H13">
-        <v>20.51900730178551</v>
+        <v>15.03227816140886</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.76159931938258</v>
+        <v>15.87277534030428</v>
       </c>
       <c r="L13">
-        <v>10.03776675835482</v>
+        <v>6.634705901112257</v>
       </c>
       <c r="M13">
-        <v>16.27618296638699</v>
+        <v>12.63344900310632</v>
       </c>
       <c r="N13">
-        <v>23.29058175742463</v>
+        <v>15.28951439486779</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.60055997257844</v>
+        <v>19.6739991721888</v>
       </c>
       <c r="C14">
-        <v>7.260794589645325</v>
+        <v>8.474459015794961</v>
       </c>
       <c r="D14">
-        <v>6.575137649292663</v>
+        <v>9.047807311077062</v>
       </c>
       <c r="E14">
-        <v>11.29797199932002</v>
+        <v>6.916754278855188</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>55.20088560117782</v>
+        <v>51.9052673066417</v>
       </c>
       <c r="H14">
-        <v>20.51850586759348</v>
+        <v>14.99185799278163</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.73233760503219</v>
+        <v>15.72465692263631</v>
       </c>
       <c r="L14">
-        <v>10.03801595490394</v>
+        <v>6.614626337553364</v>
       </c>
       <c r="M14">
-        <v>16.26924203824645</v>
+        <v>12.56201603507595</v>
       </c>
       <c r="N14">
-        <v>23.29836453503316</v>
+        <v>15.31565622087647</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.57616557102113</v>
+        <v>19.5709598253054</v>
       </c>
       <c r="C15">
-        <v>7.248519215719678</v>
+        <v>8.440911936267344</v>
       </c>
       <c r="D15">
-        <v>6.560175587854043</v>
+        <v>8.994787723898797</v>
       </c>
       <c r="E15">
-        <v>11.29952579529203</v>
+        <v>6.915176519350583</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.17101881259765</v>
+        <v>51.72558208186</v>
       </c>
       <c r="H15">
-        <v>20.51826134989102</v>
+        <v>14.96730151560809</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.71444632874568</v>
+        <v>15.63343889945109</v>
       </c>
       <c r="L15">
-        <v>10.03819551302366</v>
+        <v>6.602379697361732</v>
       </c>
       <c r="M15">
-        <v>16.26504556721856</v>
+        <v>12.51824764219485</v>
       </c>
       <c r="N15">
-        <v>23.30316870721192</v>
+        <v>15.33178416654161</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.43697724716978</v>
+        <v>18.9744095112327</v>
       </c>
       <c r="C16">
-        <v>7.177464404199895</v>
+        <v>8.246927847559956</v>
       </c>
       <c r="D16">
-        <v>6.474276292120774</v>
+        <v>8.686623517120696</v>
       </c>
       <c r="E16">
-        <v>11.30875288692921</v>
+        <v>6.906999805552305</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>55.00318580363355</v>
+        <v>50.70089777723341</v>
       </c>
       <c r="H16">
-        <v>20.51782040888875</v>
+        <v>14.82963018971823</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.61244197616874</v>
+        <v>15.10310040348156</v>
       </c>
       <c r="L16">
-        <v>10.03963754011379</v>
+        <v>6.533005356914947</v>
       </c>
       <c r="M16">
-        <v>16.24184487179395</v>
+        <v>12.26725193245087</v>
       </c>
       <c r="N16">
-        <v>23.33126662580147</v>
+        <v>15.42593567355042</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.35217196566087</v>
+        <v>18.60303928476398</v>
       </c>
       <c r="C17">
-        <v>7.133249565884342</v>
+        <v>8.126361996571051</v>
       </c>
       <c r="D17">
-        <v>6.421468882429076</v>
+        <v>8.49366320727257</v>
       </c>
       <c r="E17">
-        <v>11.31470183655848</v>
+        <v>6.902742107248031</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.90321812398924</v>
+        <v>50.07680832030795</v>
       </c>
       <c r="H17">
-        <v>20.51840718228749</v>
+        <v>14.74784870966796</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.55036211218653</v>
+        <v>14.77088847082265</v>
       </c>
       <c r="L17">
-        <v>10.04089124384428</v>
+        <v>6.491164991889079</v>
       </c>
       <c r="M17">
-        <v>16.22837237582113</v>
+        <v>12.11315513141294</v>
       </c>
       <c r="N17">
-        <v>23.34900998002088</v>
+        <v>15.48519706474085</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.30362458730052</v>
+        <v>18.38745929316076</v>
       </c>
       <c r="C18">
-        <v>7.107591983771496</v>
+        <v>8.056437982573573</v>
       </c>
       <c r="D18">
-        <v>6.391066696126457</v>
+        <v>8.381221702896243</v>
       </c>
       <c r="E18">
-        <v>11.31822962334282</v>
+        <v>6.900566783893564</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>54.84683007911719</v>
+        <v>49.71953234472546</v>
       </c>
       <c r="H18">
-        <v>20.51905985401502</v>
+        <v>14.70177471576727</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.51484956467893</v>
+        <v>14.57725446033272</v>
       </c>
       <c r="L18">
-        <v>10.04174815891677</v>
+        <v>6.467363383056004</v>
       </c>
       <c r="M18">
-        <v>16.22090435006442</v>
+        <v>12.02449574016028</v>
       </c>
       <c r="N18">
-        <v>23.3594015582035</v>
+        <v>15.51981971571055</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.28722840050262</v>
+        <v>18.31412914974518</v>
       </c>
       <c r="C19">
-        <v>7.098866207700355</v>
+        <v>8.032663455489855</v>
       </c>
       <c r="D19">
-        <v>6.380769257093681</v>
+        <v>8.342899200008059</v>
       </c>
       <c r="E19">
-        <v>11.31944230608288</v>
+        <v>6.89987676845982</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>54.82792983586889</v>
+        <v>49.59885661348093</v>
       </c>
       <c r="H19">
-        <v>20.5193349789911</v>
+        <v>14.68633877100117</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.50286007657415</v>
+        <v>14.51125169645207</v>
       </c>
       <c r="L19">
-        <v>10.04206163944435</v>
+        <v>6.459349877563357</v>
       </c>
       <c r="M19">
-        <v>16.21842420973276</v>
+        <v>11.99447428094728</v>
       </c>
       <c r="N19">
-        <v>23.36295193041253</v>
+        <v>15.53163323251164</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.36117615911197</v>
+        <v>18.64277722301842</v>
       </c>
       <c r="C20">
-        <v>7.137979815894485</v>
+        <v>8.139256168870078</v>
       </c>
       <c r="D20">
-        <v>6.427093572305</v>
+        <v>8.514354428667776</v>
       </c>
       <c r="E20">
-        <v>11.31405758142096</v>
+        <v>6.903166916571783</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.9137451413817</v>
+        <v>50.1430700302166</v>
       </c>
       <c r="H20">
-        <v>20.51831210225512</v>
+        <v>14.75645424443345</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.55695078901004</v>
+        <v>14.80651668988354</v>
       </c>
       <c r="L20">
-        <v>10.04074373238548</v>
+        <v>6.495591658831843</v>
       </c>
       <c r="M20">
-        <v>16.22977749816987</v>
+        <v>12.12956219326018</v>
       </c>
       <c r="N20">
-        <v>23.34710191315974</v>
+        <v>15.47883267659179</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.61226789104132</v>
+        <v>19.72462386026861</v>
       </c>
       <c r="C21">
-        <v>7.26666829965866</v>
+        <v>8.490515165958525</v>
       </c>
       <c r="D21">
-        <v>6.582309160623572</v>
+        <v>9.073155725163044</v>
       </c>
       <c r="E21">
-        <v>11.29723262002185</v>
+        <v>6.917526344109611</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.21526587986004</v>
+        <v>51.99151961368779</v>
       </c>
       <c r="H21">
-        <v>20.51864010100569</v>
+        <v>15.003688161799</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.74092579936936</v>
+        <v>15.76826507666999</v>
       </c>
       <c r="L21">
-        <v>10.03793715129767</v>
+        <v>6.620513212023742</v>
       </c>
       <c r="M21">
-        <v>16.27126929453498</v>
+        <v>12.58300054385119</v>
       </c>
       <c r="N21">
-        <v>23.29607083485062</v>
+        <v>15.30795360410362</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.77807393259218</v>
+        <v>20.48635879885143</v>
       </c>
       <c r="C22">
-        <v>7.348688797477474</v>
+        <v>8.715028827257711</v>
       </c>
       <c r="D22">
-        <v>6.683244148597494</v>
+        <v>9.425799997167623</v>
       </c>
       <c r="E22">
-        <v>11.28717902124448</v>
+        <v>6.929458591965694</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.42197751737606</v>
+        <v>53.21421942803313</v>
       </c>
       <c r="H22">
-        <v>20.52165781364649</v>
+        <v>15.17426230553375</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.86264436831708</v>
+        <v>16.37475282397481</v>
       </c>
       <c r="L22">
-        <v>10.03730819277992</v>
+        <v>6.704513480916019</v>
       </c>
       <c r="M22">
-        <v>16.3008546798081</v>
+        <v>12.87878120989772</v>
       </c>
       <c r="N22">
-        <v>23.26437505864978</v>
+        <v>15.20139404539144</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.68944113851592</v>
+        <v>20.08216377182442</v>
       </c>
       <c r="C23">
-        <v>7.305106906083347</v>
+        <v>8.595658228104194</v>
       </c>
       <c r="D23">
-        <v>6.629431486107236</v>
+        <v>9.238716643125237</v>
       </c>
       <c r="E23">
-        <v>11.29245869581676</v>
+        <v>6.922851462278548</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>55.31078077795378</v>
+        <v>52.56031091963089</v>
       </c>
       <c r="H23">
-        <v>20.5197908966161</v>
+        <v>15.08238070688399</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.79755748467258</v>
+        <v>16.0530441710556</v>
       </c>
       <c r="L23">
-        <v>10.03753380811291</v>
+        <v>6.659464701233278</v>
       </c>
       <c r="M23">
-        <v>16.28484030597283</v>
+        <v>12.72098284376375</v>
       </c>
       <c r="N23">
-        <v>23.28114021096102</v>
+        <v>15.25778068111673</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.35710471048342</v>
+        <v>18.62481816001229</v>
       </c>
       <c r="C24">
-        <v>7.135842010098163</v>
+        <v>8.133428611577012</v>
       </c>
       <c r="D24">
-        <v>6.424550779589146</v>
+        <v>8.505004622813447</v>
       </c>
       <c r="E24">
-        <v>11.31434851381089</v>
+        <v>6.902974012759127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.90898249527364</v>
+        <v>50.11310836716826</v>
       </c>
       <c r="H24">
-        <v>20.51835410560165</v>
+        <v>14.7525607484887</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.55397149099692</v>
+        <v>14.79041740532535</v>
       </c>
       <c r="L24">
-        <v>10.04080999819565</v>
+        <v>6.493589574792813</v>
       </c>
       <c r="M24">
-        <v>16.22914137760864</v>
+        <v>12.12214476560555</v>
       </c>
       <c r="N24">
-        <v>23.34796395612496</v>
+        <v>15.48170829915498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.00763708154662</v>
+        <v>17.016671592923</v>
       </c>
       <c r="C25">
-        <v>6.944653608597033</v>
+        <v>7.612770918137072</v>
       </c>
       <c r="D25">
-        <v>6.202618001264091</v>
+        <v>7.657713179992117</v>
       </c>
       <c r="E25">
-        <v>11.34201832965657</v>
+        <v>6.891934291882865</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>54.51815580474612</v>
+        <v>47.53837869532608</v>
       </c>
       <c r="H25">
-        <v>20.52885372164463</v>
+        <v>14.4334517805969</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.29879059690994</v>
+        <v>13.33046113290124</v>
       </c>
       <c r="L25">
-        <v>10.04953819364532</v>
+        <v>6.324757846118962</v>
       </c>
       <c r="M25">
-        <v>16.17981989497649</v>
+        <v>11.47547291684477</v>
       </c>
       <c r="N25">
-        <v>23.42715888840173</v>
+        <v>15.74364449113755</v>
       </c>
       <c r="O25">
         <v>0</v>
